--- a/results/mp/logistic/corona/confidence/210/0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.1/avg_0.003_scores.xlsx
@@ -40,18 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -64,109 +67,106 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
+    <t>great</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>better</t>
+    <t>please</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>join</t>
+    <t>well</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,37 +693,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5588235294117647</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,16 +764,16 @@
         <v>112</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3333333333333333</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2147651006711409</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>117</v>
+        <v>342</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8485639686684073</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L8">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1138888888888889</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>319</v>
+        <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,21 +935,45 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>320</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8301886792452831</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L10">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -961,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -987,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7948717948717948</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1013,21 +1037,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L13">
         <v>26</v>
       </c>
-      <c r="K13">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L13">
-        <v>46</v>
-      </c>
       <c r="M13">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1039,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1065,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L15">
         <v>28</v>
       </c>
-      <c r="K15">
-        <v>0.7676056338028169</v>
-      </c>
-      <c r="L15">
-        <v>109</v>
-      </c>
       <c r="M15">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1091,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1117,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.75625</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1143,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7421875</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1169,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1195,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7021276595744681</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1221,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L21">
         <v>34</v>
       </c>
-      <c r="K21">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L21">
-        <v>24</v>
-      </c>
       <c r="M21">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1247,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6825396825396826</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1273,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6176470588235294</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L23">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1299,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6046511627906976</v>
+        <v>0.64</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1325,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1351,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1377,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5774058577405857</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L27">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="M27">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1403,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5757575757575758</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1429,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.575</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1455,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5457627118644067</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L30">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M30">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1481,12 +1505,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>0.5428571428571428</v>
@@ -1512,16 +1536,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5425531914893617</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1533,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4269662921348314</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1559,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.392156862745098</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1585,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3333333333333333</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1611,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.2876712328767123</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1637,33 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37">
-        <v>0.01585976627712855</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>0.9</v>
-      </c>
-      <c r="O37">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1179</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
